--- a/Code/Results/Cases/Case_2_102/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_102/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.04012325980467</v>
+        <v>12.49520910190846</v>
       </c>
       <c r="C2">
-        <v>15.06000494972649</v>
+        <v>9.288973803215931</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.27020907521252</v>
+        <v>11.63215065497509</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.058802940587431</v>
+        <v>3.59701488501062</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8.936179780696241</v>
+        <v>16.5409470004262</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.22657758463975</v>
+        <v>14.45124636476535</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.54309484104643</v>
+        <v>17.08095375148841</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.70835725245514</v>
+        <v>11.80570860404007</v>
       </c>
       <c r="C3">
-        <v>14.16643363115517</v>
+        <v>8.815037415443363</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.69763818047005</v>
+        <v>11.56933059045996</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.064305317827338</v>
+        <v>3.599013418264768</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9.382820656645444</v>
+        <v>16.70558851522055</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.05404534679574</v>
+        <v>14.12112120627908</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.63225113498181</v>
+        <v>17.21003898883817</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.84428278177946</v>
+        <v>11.36066876589177</v>
       </c>
       <c r="C4">
-        <v>13.58890604728097</v>
+        <v>8.509244669694702</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.34806321156472</v>
+        <v>11.53603841280217</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.067776039615642</v>
+        <v>3.600304064271541</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.667911516902569</v>
+        <v>16.81194457957259</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.29538280837997</v>
+        <v>13.91701508939771</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.71070176036119</v>
+        <v>17.29578512175504</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.48050928621153</v>
+        <v>11.17399413870485</v>
       </c>
       <c r="C5">
-        <v>13.34635623710382</v>
+        <v>8.380998531011246</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.20630090930992</v>
+        <v>11.52380862720955</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.069214353445283</v>
+        <v>3.60084604220815</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.78671984127438</v>
+        <v>16.85661156403726</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.97645289752182</v>
+        <v>13.83360514104817</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.74821248936169</v>
+        <v>17.3323495257964</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.41940142729426</v>
+        <v>11.14268032395631</v>
       </c>
       <c r="C6">
-        <v>13.30564814404687</v>
+        <v>8.359486800633196</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.18280936160954</v>
+        <v>11.52185885464774</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.069454653683052</v>
+        <v>3.600937006883586</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9.806604450250871</v>
+        <v>16.86410863077479</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.92290420034711</v>
+        <v>13.81974434432213</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.75476369260116</v>
+        <v>17.33851872758876</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.83942398335299</v>
+        <v>11.35817253657252</v>
       </c>
       <c r="C7">
-        <v>13.58566400616724</v>
+        <v>8.507529680537861</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.34614827751648</v>
+        <v>11.53586805365167</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>2.067795339187262</v>
+        <v>3.600311308604816</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9.669503262367041</v>
+        <v>16.81254160248511</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.29112119218441</v>
+        <v>13.91589098510911</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.71118575506984</v>
+        <v>17.29627168602941</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.59054916612905</v>
+        <v>12.26204256480773</v>
       </c>
       <c r="C8">
-        <v>14.75792108570833</v>
+        <v>9.128678145283994</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.07248145073858</v>
+        <v>11.60940106454469</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>2.060681494287921</v>
+        <v>3.597690823197618</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.087862049571088</v>
+        <v>16.59662371362445</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.83030170405137</v>
+        <v>14.33778146717664</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.56866059390311</v>
+        <v>17.12411038872115</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.6574327941422</v>
+        <v>13.85782499500589</v>
       </c>
       <c r="C9">
-        <v>16.82623057583425</v>
+        <v>10.22632494495438</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.50566826305799</v>
+        <v>11.79493573430996</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.047425862797024</v>
+        <v>3.593053831300742</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8.03951675899213</v>
+        <v>16.21489919342875</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.54357733278396</v>
+        <v>15.14894406369789</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.49616368189852</v>
+        <v>16.8383891345102</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.68910640999234</v>
+        <v>14.91775964164868</v>
       </c>
       <c r="C10">
-        <v>18.2047420949564</v>
+        <v>10.95618605138706</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.77987084958953</v>
+        <v>11.95551373899527</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.038054591315059</v>
+        <v>3.589949588039928</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>7.337921961568251</v>
+        <v>15.95973689652087</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.35504746437032</v>
+        <v>15.72875019998894</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10.59426371277896</v>
+        <v>16.66067405784695</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.5659745098195</v>
+        <v>15.3748541700418</v>
       </c>
       <c r="C11">
-        <v>18.80141312771576</v>
+        <v>11.27113094239676</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.35921980863429</v>
+        <v>12.0335817979061</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.033857740680472</v>
+        <v>3.588602372444955</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>7.037962849074056</v>
+        <v>15.84912405686558</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.1407174138047</v>
+        <v>15.9877997420632</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>10.67674599737338</v>
+        <v>16.5869455876722</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.89128263711255</v>
+        <v>15.54429826985264</v>
       </c>
       <c r="C12">
-        <v>19.02301183938474</v>
+        <v>11.38790935590368</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.57625321113177</v>
+        <v>12.06384158219008</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.0322768114007</v>
+        <v>3.588101498476572</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.927659449905955</v>
+        <v>15.80802175689236</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.43281485150079</v>
+        <v>16.08512611902366</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.7137884599088</v>
+        <v>16.56006034909027</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.82152045039211</v>
+        <v>15.50796824349323</v>
       </c>
       <c r="C13">
-        <v>18.97547941653573</v>
+        <v>11.36286992650414</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.52961377736243</v>
+        <v>12.05729400796989</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.032616942489796</v>
+        <v>3.58820895835363</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.951259072096239</v>
+        <v>15.81683900166775</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.37014573279084</v>
+        <v>16.06420080209343</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.70554702875706</v>
+        <v>16.56580439639374</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.59287253016882</v>
+        <v>15.38886774726727</v>
       </c>
       <c r="C14">
-        <v>18.81973112968755</v>
+        <v>11.28078830823281</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.37712170246659</v>
+        <v>12.03605746658612</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.03372751696643</v>
+        <v>3.588560979384723</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>7.028818711322122</v>
+        <v>15.84572683104499</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.16485643372399</v>
+        <v>15.99582278430733</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.67967515994168</v>
+        <v>16.58471293388638</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.4519430822694</v>
+        <v>15.31543914832705</v>
       </c>
       <c r="C15">
-        <v>18.72376558898787</v>
+        <v>11.23018664891812</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.28341322704873</v>
+        <v>12.02313948564294</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.034408823293794</v>
+        <v>3.588777810494804</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>7.076772287058984</v>
+        <v>15.86352358259543</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.03840828485464</v>
+        <v>15.95383634032871</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.6645943969172</v>
+        <v>16.59642996238399</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.63085365396072</v>
+        <v>14.88737904487002</v>
       </c>
       <c r="C16">
-        <v>18.1651381444987</v>
+        <v>10.93525745317024</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.74167287473843</v>
+        <v>11.95051075396168</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.038330097667492</v>
+        <v>3.590038933988595</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>7.357952559340278</v>
+        <v>15.96707552066158</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.30293812594032</v>
+        <v>15.71171786210776</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.58966716252618</v>
+        <v>16.66563649666398</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.11505848881982</v>
+        <v>14.6183225294293</v>
       </c>
       <c r="C17">
-        <v>17.81466247425627</v>
+        <v>10.74993216341455</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.40500958575325</v>
+        <v>11.90722419205379</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.040751807825411</v>
+        <v>3.590829185697984</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>7.535689941819465</v>
+        <v>16.0319994058729</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.84198930302734</v>
+        <v>15.56191193967058</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.55366971673863</v>
+        <v>16.70992257712131</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.81392535866596</v>
+        <v>14.46120992821949</v>
       </c>
       <c r="C18">
-        <v>17.61021247480568</v>
+        <v>10.64173228721237</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.20974468547993</v>
+        <v>11.88280106305523</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.042151018195002</v>
+        <v>3.591289831035013</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>7.63968747724433</v>
+        <v>16.0698560470923</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.57324485853067</v>
+        <v>15.47530961436611</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>10.53650863751431</v>
+        <v>16.73606379118818</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.71119873913715</v>
+        <v>14.40761069066706</v>
       </c>
       <c r="C19">
-        <v>17.54049639574713</v>
+        <v>10.60482289931864</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.1433490243212</v>
+        <v>11.87461397116346</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.042625884682506</v>
+        <v>3.591446849094076</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>7.675189393864827</v>
+        <v>16.08276199250974</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.48162820066062</v>
+        <v>15.44591529245984</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10.53129505100453</v>
+        <v>16.74502933083618</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.17042705124239</v>
+        <v>14.64720847748285</v>
       </c>
       <c r="C20">
-        <v>17.85226763233475</v>
+        <v>10.76982677177537</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.44101537883374</v>
+        <v>11.91178322047426</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.040493368237149</v>
+        <v>3.590744429684367</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>7.516583249160099</v>
+        <v>16.02503494368055</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.89143194354864</v>
+        <v>15.57790505561378</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10.55713217436934</v>
+        <v>16.70513892661902</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.6602143927446</v>
+        <v>15.42394973102658</v>
       </c>
       <c r="C21">
-        <v>18.86559590528395</v>
+        <v>11.30496529594025</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.4219751613785</v>
+        <v>12.04227644173069</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.033401098313147</v>
+        <v>3.588457330600867</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>7.005943435826532</v>
+        <v>15.83722049479701</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.22530108894471</v>
+        <v>16.01592867363513</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.68711402597779</v>
+        <v>16.57913088369899</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.59461133897859</v>
+        <v>15.91032089682995</v>
       </c>
       <c r="C22">
-        <v>19.50254274680756</v>
+        <v>11.64021919312693</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.04944018108827</v>
+        <v>12.13161173658671</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.028813799931294</v>
+        <v>3.587016690756077</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.691725585684733</v>
+        <v>15.71904450256035</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.06553151906372</v>
+        <v>16.29767551051517</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>10.80605728922326</v>
+        <v>16.50281025157077</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.09947471814303</v>
+        <v>15.65269335704186</v>
       </c>
       <c r="C23">
-        <v>19.16489762601076</v>
+        <v>11.46262176490143</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.71575522516709</v>
+        <v>12.08356988118979</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.031258163491939</v>
+        <v>3.587780651950418</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>6.857426102576797</v>
+        <v>15.78169924991075</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.61993385347791</v>
+        <v>16.14774515357761</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.73935547299343</v>
+        <v>16.54298833116532</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.14540924340042</v>
+        <v>14.6341567011177</v>
       </c>
       <c r="C24">
-        <v>17.83527555225912</v>
+        <v>10.76083756864011</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.42474250299909</v>
+        <v>11.9097206400011</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.040610187079245</v>
+        <v>3.590782728190531</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>7.525215772148433</v>
+        <v>16.0281819227537</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.86909057879554</v>
+        <v>15.57067604619131</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>10.55555581682186</v>
+        <v>16.70729949589663</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.86687607733634</v>
+        <v>13.44560244050117</v>
       </c>
       <c r="C25">
-        <v>16.2914909553839</v>
+        <v>9.942644885725178</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.11783706354528</v>
+        <v>11.74040447154775</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.050943023085425</v>
+        <v>3.594254888672898</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>8.312207517414171</v>
+        <v>16.31371591405754</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.84185482682557</v>
+        <v>14.93190724764554</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.49096819147521</v>
+        <v>16.91007090112527</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_102/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_102/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.49520910190846</v>
+        <v>21.04012325980471</v>
       </c>
       <c r="C2">
-        <v>9.288973803215931</v>
+        <v>15.06000494972647</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.63215065497509</v>
+        <v>11.27020907521256</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.59701488501062</v>
+        <v>2.058802940587431</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.5409470004262</v>
+        <v>8.936179780696161</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.45124636476535</v>
+        <v>18.22657758463975</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.08095375148841</v>
+        <v>10.5430948410464</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.80570860404007</v>
+        <v>19.70835725245514</v>
       </c>
       <c r="C3">
-        <v>8.815037415443363</v>
+        <v>14.16643363115537</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.56933059045996</v>
+        <v>10.69763818047009</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.599013418264768</v>
+        <v>2.064305317827339</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.70558851522055</v>
+        <v>9.382820656645466</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.12112120627908</v>
+        <v>17.05404534679574</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.21003898883817</v>
+        <v>10.63225113498177</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.36066876589177</v>
+        <v>18.84428278177944</v>
       </c>
       <c r="C4">
-        <v>8.509244669694702</v>
+        <v>13.58890604728087</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.53603841280217</v>
+        <v>10.34806321156466</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.600304064271541</v>
+        <v>2.067776039615776</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>16.81194457957259</v>
+        <v>9.667911516902643</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.91701508939771</v>
+        <v>16.29538280837999</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.29578512175504</v>
+        <v>10.71070176036128</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.17399413870485</v>
+        <v>18.48050928621154</v>
       </c>
       <c r="C5">
-        <v>8.380998531011246</v>
+        <v>13.34635623710389</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.52380862720955</v>
+        <v>10.20630090930991</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.60084604220815</v>
+        <v>2.069214353445283</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>16.85661156403726</v>
+        <v>9.786719841274481</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.83360514104817</v>
+        <v>15.97645289752182</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.3323495257964</v>
+        <v>10.74821248936173</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.14268032395631</v>
+        <v>18.41940142729422</v>
       </c>
       <c r="C6">
-        <v>8.359486800633196</v>
+        <v>13.30564814404679</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.52185885464774</v>
+        <v>10.18280936160946</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.600937006883586</v>
+        <v>2.069454653682917</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>16.86410863077479</v>
+        <v>9.806604450251063</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.81974434432213</v>
+        <v>15.92290420034709</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.33851872758876</v>
+        <v>10.75476369260135</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.35817253657252</v>
+        <v>18.83942398335291</v>
       </c>
       <c r="C7">
-        <v>8.507529680537861</v>
+        <v>13.58566400616742</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.53586805365167</v>
+        <v>10.34614827751651</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.600311308604816</v>
+        <v>2.067795339187395</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16.81254160248511</v>
+        <v>9.669503262367177</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.91589098510911</v>
+        <v>16.29112119218443</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.29627168602941</v>
+        <v>10.71118575506986</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.26204256480773</v>
+        <v>20.59054916612914</v>
       </c>
       <c r="C8">
-        <v>9.128678145283994</v>
+        <v>14.75792108570835</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.60940106454469</v>
+        <v>11.07248145073863</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.597690823197618</v>
+        <v>2.06068149428819</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.59662371362445</v>
+        <v>9.087862049570864</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.33778146717664</v>
+        <v>17.83030170405139</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.12411038872115</v>
+        <v>10.56866059390297</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.85782499500589</v>
+        <v>23.65743279414209</v>
       </c>
       <c r="C9">
-        <v>10.22632494495438</v>
+        <v>16.8262305758342</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.79493573430996</v>
+        <v>12.50566826305798</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.593053831300742</v>
+        <v>2.047425862796755</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.21489919342875</v>
+        <v>8.039516758992452</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.14894406369789</v>
+        <v>20.5435773327839</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.8383891345102</v>
+        <v>10.49616368189872</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.91775964164868</v>
+        <v>25.68910640999235</v>
       </c>
       <c r="C10">
-        <v>10.95618605138706</v>
+        <v>18.20474209495628</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.95551373899527</v>
+        <v>13.77987084958952</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.589949588039928</v>
+        <v>2.038054591314658</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.95973689652087</v>
+        <v>7.337921961568396</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.72875019998894</v>
+        <v>22.35504746437031</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.66067405784695</v>
+        <v>10.59426371277909</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.3748541700418</v>
+        <v>26.56597450981957</v>
       </c>
       <c r="C11">
-        <v>11.27113094239676</v>
+        <v>18.80141312771573</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.0335817979061</v>
+        <v>14.35921980863438</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.588602372444955</v>
+        <v>2.033857740680338</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.84912405686558</v>
+        <v>7.037962849073849</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.9877997420632</v>
+        <v>23.14071741380476</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.5869455876722</v>
+        <v>10.67674599737327</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.54429826985264</v>
+        <v>26.89128263711255</v>
       </c>
       <c r="C12">
-        <v>11.38790935590368</v>
+        <v>19.02301183938463</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.06384158219008</v>
+        <v>14.57625321113176</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.588101498476572</v>
+        <v>2.0322768114007</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.80802175689236</v>
+        <v>6.927659449906002</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.08512611902366</v>
+        <v>23.43281485150076</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.56006034909027</v>
+        <v>10.71378845990881</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.50796824349323</v>
+        <v>26.82152045039209</v>
       </c>
       <c r="C13">
-        <v>11.36286992650414</v>
+        <v>18.97547941653572</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.05729400796989</v>
+        <v>14.52961377736244</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.58820895835363</v>
+        <v>2.032616942489663</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.81683900166775</v>
+        <v>6.951259072096263</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.06420080209343</v>
+        <v>23.37014573279084</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.56580439639374</v>
+        <v>10.7055470287571</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.38886774726727</v>
+        <v>26.59287253016875</v>
       </c>
       <c r="C14">
-        <v>11.28078830823281</v>
+        <v>18.81973112968755</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.03605746658612</v>
+        <v>14.37712170246659</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.588560979384723</v>
+        <v>2.033727516966428</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.84572683104499</v>
+        <v>7.028818711322242</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.99582278430733</v>
+        <v>23.16485643372392</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.58471293388638</v>
+        <v>10.67967515994177</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.31543914832705</v>
+        <v>26.45194308226947</v>
       </c>
       <c r="C15">
-        <v>11.23018664891812</v>
+        <v>18.72376558898783</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.02313948564294</v>
+        <v>14.28341322704875</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.588777810494804</v>
+        <v>2.034408823294197</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.86352358259543</v>
+        <v>7.076772287058877</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.95383634032871</v>
+        <v>23.03840828485466</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.59642996238399</v>
+        <v>10.66459439691719</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.88737904487002</v>
+        <v>25.63085365396071</v>
       </c>
       <c r="C16">
-        <v>10.93525745317024</v>
+        <v>18.16513814449866</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.95051075396168</v>
+        <v>13.74167287473849</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.590038933988595</v>
+        <v>2.038330097667225</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.96707552066158</v>
+        <v>7.357952559340314</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.71171786210776</v>
+        <v>22.30293812594032</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.66563649666398</v>
+        <v>10.58966716252626</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.6183225294293</v>
+        <v>25.11505848881989</v>
       </c>
       <c r="C17">
-        <v>10.74993216341455</v>
+        <v>17.81466247425611</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.90722419205379</v>
+        <v>13.40500958575327</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.590829185697984</v>
+        <v>2.040751807825009</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.0319994058729</v>
+        <v>7.535689941819306</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.56191193967058</v>
+        <v>21.84198930302736</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.70992257712131</v>
+        <v>10.55366971673864</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.46120992821949</v>
+        <v>24.81392535866597</v>
       </c>
       <c r="C18">
-        <v>10.64173228721237</v>
+        <v>17.61021247480578</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.88280106305523</v>
+        <v>13.2097446854799</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.591289831035013</v>
+        <v>2.042151018194868</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.0698560470923</v>
+        <v>7.639687477244397</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.47530961436611</v>
+        <v>21.57324485853066</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.73606379118818</v>
+        <v>10.53650863751433</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.40761069066706</v>
+        <v>24.71119873913716</v>
       </c>
       <c r="C19">
-        <v>10.60482289931864</v>
+        <v>17.5404963957471</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.87461397116346</v>
+        <v>13.14334902432118</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.591446849094076</v>
+        <v>2.04262588468264</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.08276199250974</v>
+        <v>7.675189393864907</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.44591529245984</v>
+        <v>21.48162820066062</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.74502933083618</v>
+        <v>10.53129505100459</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.64720847748285</v>
+        <v>25.17042705124241</v>
       </c>
       <c r="C20">
-        <v>10.76982677177537</v>
+        <v>17.85226763233472</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.91178322047426</v>
+        <v>13.44101537883377</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.590744429684367</v>
+        <v>2.040493368237416</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.02503494368055</v>
+        <v>7.516583249160071</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.57790505561378</v>
+        <v>21.89143194354866</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.70513892661902</v>
+        <v>10.55713217436931</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.42394973102658</v>
+        <v>26.66021439274463</v>
       </c>
       <c r="C21">
-        <v>11.30496529594025</v>
+        <v>18.86559590528409</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.04227644173069</v>
+        <v>14.42197516137844</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.588457330600867</v>
+        <v>2.033401098313147</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.83722049479701</v>
+        <v>7.005943435826377</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.01592867363513</v>
+        <v>23.22530108894472</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.57913088369899</v>
+        <v>10.68711402597769</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.91032089682995</v>
+        <v>27.59461133897853</v>
       </c>
       <c r="C22">
-        <v>11.64021919312693</v>
+        <v>19.50254274680759</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.13161173658671</v>
+        <v>15.04944018108831</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.587016690756077</v>
+        <v>2.028813799931426</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.71904450256035</v>
+        <v>6.691725585684871</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.29767551051517</v>
+        <v>24.06553151906371</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.50281025157077</v>
+        <v>10.80605728922331</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.65269335704186</v>
+        <v>27.09947471814305</v>
       </c>
       <c r="C23">
-        <v>11.46262176490143</v>
+        <v>19.16489762601073</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.08356988118979</v>
+        <v>14.71575522516706</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.587780651950418</v>
+        <v>2.031258163492073</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.78169924991075</v>
+        <v>6.857426102576765</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.14774515357761</v>
+        <v>23.61993385347792</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.54298833116532</v>
+        <v>10.7393554729934</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.6341567011177</v>
+        <v>25.14540924340037</v>
       </c>
       <c r="C24">
-        <v>10.76083756864011</v>
+        <v>17.83527555225906</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.9097206400011</v>
+        <v>13.42474250299911</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.590782728190531</v>
+        <v>2.04061018707911</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.0281819227537</v>
+        <v>7.525215772148568</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.57067604619131</v>
+        <v>21.8690905787955</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.70729949589663</v>
+        <v>10.555555816822</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.44560244050117</v>
+        <v>22.86687607733633</v>
       </c>
       <c r="C25">
-        <v>9.942644885725178</v>
+        <v>16.29149095538407</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.74040447154775</v>
+        <v>12.11783706354529</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.594254888672898</v>
+        <v>2.05094302308556</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.31371591405754</v>
+        <v>8.312207517414116</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.93190724764554</v>
+        <v>19.84185482682556</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.91007090112527</v>
+        <v>10.49096819147518</v>
       </c>
     </row>
   </sheetData>
